--- a/StructureDefinition-ext-R5-ClaimResponse.add.det.traceNumber.xlsx
+++ b/StructureDefinition-ext-R5-ClaimResponse.add.det.traceNumber.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ClaimResponse.addItem.detail.traceNumber` 0..* `Identifier`
 Following are the generation technical comments:
-Element `ClaimResponse.addItem.detail.traceNumber` is mapped to FHIR R4 structure `ClaimResponse`, but has no target element specified.</t>
+Element `ClaimResponse.addItem.detail.traceNumber` is will have a context of ClaimResponse.addItem.detail based on following the parent source element upwards and mapping to `ClaimResponse`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ClaimResponse.addItem.detail</t>
   </si>
   <si>
     <t>ID</t>
